--- a/暗黑符文の语.xlsx
+++ b/暗黑符文の语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
   <si>
     <t>适用装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,75 +32,551 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天底21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学识24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦境41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪勒瑞姆29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盔甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>烟尘57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐秘18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审慎62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和平56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神话63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子心46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背信16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财富38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨</t>
+    <t>盔甲/盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔/盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌/盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌/头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌/剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌/全部武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲/全部武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒牙 Venom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝彩 Plague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热情 Passion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚毅 Fortitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰 Phoenix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义之手 Hand of Justice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战阵召唤 Call To Arms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂静 Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡呼吸 Breath of the Dying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器/盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器/盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量 Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻风 Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨恨 Malice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒 Fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀 Honor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒 Eternity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部近战武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁 Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/斧头/钉头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色 White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手杖（死灵法师专用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和风 Zephyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远距离武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘 Edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋律 Melody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和谐 Harmony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒 Wrath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信心 Faith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻 Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烙印 Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注/亮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王的恩典 King's Grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法者 Lawbringer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新月 Crescent Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/斧头/长柄武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/权杖/铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考之声 Voice of Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/钉头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓约 Oath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/斧头/钉头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弑王者 Kingslayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神 Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神 Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悔恨 Grief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭 Destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/长柄武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的希望 Last Wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑/锤子/斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥荒 Famine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头/铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽 Beast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头/铁锤/权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日 Doom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头/铁锤/长柄武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色 Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁锤/棍棒/钉头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣雷击 Holy Thunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡树之心 Heart of the Oak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍棒法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器/剑/斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼光 Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器/双手法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝 Rift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器/权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限 Infinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄傲 Pride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵从 Obedience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭 Destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器/剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器/斧头/铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子 Leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼光 Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手法杖/长柄武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手法杖/铁链棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆 Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远距离攻击武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜样 Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌 Chaos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流亡 Exile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神 Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境 Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙 Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣堂 Sanctuary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代人的契约 Ancient's Pledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灿烂 Eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押韵 Rhtme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀之链 Chains of Honor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蔷薇 Bramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚毅 Fortitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块 Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谜团 Enigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙 Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则 Principle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细雨 Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨 Bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽暗 Gloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制 Duress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启迪 Enlightenment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富 Wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背信 Treaceery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子心 Lion's heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话 Myth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平 Peace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审慎 Prudence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐秘 Stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟尘 Smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境 Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪勒瑞姆 Delirium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉 Radiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识 Lore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天底 Nadir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,15 +620,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,170 +939,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D9" sqref="D9:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D50" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="D68" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="5">
+        <v>5</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D76" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D77" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="D82" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="D83" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="5">
+        <v>3</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="5">
+        <v>4</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="5">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
+  <mergeCells count="37">
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D9:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C24"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D91:D98"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D85:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/暗黑符文の语.xlsx
+++ b/暗黑符文の语.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="354">
   <si>
     <t>适用装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +579,654 @@
   </si>
   <si>
     <t>天底 Nadir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔影斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjnf</t>
+  </si>
+  <si>
+    <t>xzqh</t>
+  </si>
+  <si>
+    <t>jgdm</t>
+  </si>
+  <si>
+    <t>s0101</t>
+  </si>
+  <si>
+    <t>s0102</t>
+  </si>
+  <si>
+    <t>s0103</t>
+  </si>
+  <si>
+    <t>s0104</t>
+  </si>
+  <si>
+    <t>s0105</t>
+  </si>
+  <si>
+    <t>s0106</t>
+  </si>
+  <si>
+    <t>s0107</t>
+  </si>
+  <si>
+    <t>s0201</t>
+  </si>
+  <si>
+    <t>s0202</t>
+  </si>
+  <si>
+    <t>s0301</t>
+  </si>
+  <si>
+    <t>s0302</t>
+  </si>
+  <si>
+    <t>s0401</t>
+  </si>
+  <si>
+    <t>s0402</t>
+  </si>
+  <si>
+    <t>s0403</t>
+  </si>
+  <si>
+    <t>s0501</t>
+  </si>
+  <si>
+    <t>s050101</t>
+  </si>
+  <si>
+    <t>s0502</t>
+  </si>
+  <si>
+    <t>s050201</t>
+  </si>
+  <si>
+    <t>s0503</t>
+  </si>
+  <si>
+    <t>s050301</t>
+  </si>
+  <si>
+    <t>s0504</t>
+  </si>
+  <si>
+    <t>s0505</t>
+  </si>
+  <si>
+    <t>n0601</t>
+  </si>
+  <si>
+    <t>n060101</t>
+  </si>
+  <si>
+    <t>n060102</t>
+  </si>
+  <si>
+    <t>n060103</t>
+  </si>
+  <si>
+    <t>n060104</t>
+  </si>
+  <si>
+    <t>n060105</t>
+  </si>
+  <si>
+    <t>n060106</t>
+  </si>
+  <si>
+    <t>n060107</t>
+  </si>
+  <si>
+    <t>fy_treat</t>
+  </si>
+  <si>
+    <t>n060108</t>
+  </si>
+  <si>
+    <t>n060109</t>
+  </si>
+  <si>
+    <t>n0701</t>
+  </si>
+  <si>
+    <t>n070201</t>
+  </si>
+  <si>
+    <t>n070202</t>
+  </si>
+  <si>
+    <t>n070203</t>
+  </si>
+  <si>
+    <t>n070204</t>
+  </si>
+  <si>
+    <t>n070205</t>
+  </si>
+  <si>
+    <t>Nm1</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>Nm4</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>jgmc</t>
+  </si>
+  <si>
+    <t>dbztj</t>
+  </si>
+  <si>
+    <t>ryzd_tjm</t>
+  </si>
+  <si>
+    <t>ryzd_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd1_tjm</t>
+  </si>
+  <si>
+    <t>cyzd1_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd2_tjm</t>
+  </si>
+  <si>
+    <t>cyzd2_zlxtm</t>
+  </si>
+  <si>
+    <t>self_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>zy_day</t>
+  </si>
+  <si>
+    <t>qjcs</t>
+  </si>
+  <si>
+    <t>cgcs</t>
+  </si>
+  <si>
+    <t>qjff</t>
+  </si>
+  <si>
+    <t>zllbdm</t>
+  </si>
+  <si>
+    <t>zybq_wz</t>
+  </si>
+  <si>
+    <t>zybq_jz</t>
+  </si>
+  <si>
+    <t>zybq_yn</t>
+  </si>
+  <si>
+    <t>jbxz</t>
+  </si>
+  <si>
+    <t>mzzd_zybm1n</t>
+  </si>
+  <si>
+    <t>mzzd_zybm1_tjm</t>
+  </si>
+  <si>
+    <t>mzzd_zybm1_zlxtm</t>
+  </si>
+  <si>
+    <t>mzzd_zyzm1n</t>
+  </si>
+  <si>
+    <t>mzzd_zyzm1_tjm</t>
+  </si>
+  <si>
+    <t>mzzd_zyzm1_zlxtm</t>
+  </si>
+  <si>
+    <t>mzzd_xy1n</t>
+  </si>
+  <si>
+    <t>mzzd_xy1_tjm</t>
+  </si>
+  <si>
+    <t>mzzd_xy1_zlxtm</t>
+  </si>
+  <si>
+    <t>ryzd_zybm1n</t>
+  </si>
+  <si>
+    <t>ryzd_zybm1_tjm</t>
+  </si>
+  <si>
+    <t>ryzd_zybm1_zlxtm</t>
+  </si>
+  <si>
+    <t>ryzd_zyzm1n</t>
+  </si>
+  <si>
+    <t>ryzd_zyzm1_tjm</t>
+  </si>
+  <si>
+    <t>ryzd_zyzm1_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm1n</t>
+  </si>
+  <si>
+    <t>cyzd_zybm1_tjm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm1_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm1_zgdm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm1n</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm1_tjm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm1_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm1_zgdm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm2n</t>
+  </si>
+  <si>
+    <t>cyzd_zybm2_tjm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm2_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd_zybm2_zgdm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm2n</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm2_tjm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm2_zlxtm</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm2_zgdm</t>
+  </si>
+  <si>
+    <t>qz_time</t>
+  </si>
+  <si>
+    <t>qzts</t>
+  </si>
+  <si>
+    <t>ss1_qk</t>
+  </si>
+  <si>
+    <t>ss1_yh</t>
+  </si>
+  <si>
+    <t>xy_mc_dm</t>
+  </si>
+  <si>
+    <t>xy_rc_dm</t>
+  </si>
+  <si>
+    <t>xy_sqh_dm</t>
+  </si>
+  <si>
+    <t>xy_lb_dm</t>
+  </si>
+  <si>
+    <t>xy_ls_dm</t>
+  </si>
+  <si>
+    <t>zy_mc_dm</t>
+  </si>
+  <si>
+    <t>zy_rc_dm</t>
+  </si>
+  <si>
+    <t>swyy_xy</t>
+  </si>
+  <si>
+    <t>sw_time</t>
+  </si>
+  <si>
+    <t>fy_sy</t>
+  </si>
+  <si>
+    <t>fy_zcy</t>
+  </si>
+  <si>
+    <t>fy_sx</t>
+  </si>
+  <si>
+    <t>fy_js</t>
+  </si>
+  <si>
+    <t>fy_mz</t>
+  </si>
+  <si>
+    <t>fy_pc</t>
+  </si>
+  <si>
+    <t>fy_fs</t>
+  </si>
+  <si>
+    <t>fy_ye</t>
+  </si>
+  <si>
+    <t>fy_hs</t>
+  </si>
+  <si>
+    <t>cbrq</t>
+  </si>
+  <si>
+    <t>zlbrq</t>
+  </si>
+  <si>
+    <t>wdtj</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>seriseno</t>
+  </si>
+  <si>
+    <t>sfqj</t>
+  </si>
+  <si>
+    <t>doct1</t>
+  </si>
+  <si>
+    <t>doct2</t>
+  </si>
+  <si>
+    <t>doct3</t>
+  </si>
+  <si>
+    <t>doct4</t>
+  </si>
+  <si>
+    <t>ss1_doct</t>
+  </si>
+  <si>
+    <t>ss1_doct3</t>
+  </si>
+  <si>
+    <t>ryzd_xy1</t>
+  </si>
+  <si>
+    <t>cyzd_xy1</t>
+  </si>
+  <si>
+    <t>cyzd_xy2</t>
+  </si>
+  <si>
+    <t>mzzd_zybm1</t>
+  </si>
+  <si>
+    <t>mzzd_zyzm1</t>
+  </si>
+  <si>
+    <t>mzzd_xy1</t>
+  </si>
+  <si>
+    <t>ryzd_zybm1</t>
+  </si>
+  <si>
+    <t>ryzd_zyzm1</t>
+  </si>
+  <si>
+    <t>cyzd_zybm1</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm1</t>
+  </si>
+  <si>
+    <t>cyzd_zybm2</t>
+  </si>
+  <si>
+    <t>cyzd_zyzm2</t>
+  </si>
+  <si>
+    <t>ss1_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>re_phone</t>
+  </si>
+  <si>
+    <t>shbfz</t>
+  </si>
+  <si>
+    <t>zyid</t>
+  </si>
+  <si>
+    <t>rykbmc</t>
+  </si>
+  <si>
+    <t>cykbmc</t>
+  </si>
+  <si>
+    <t>ss2_id</t>
+  </si>
+  <si>
+    <t>ss2_name</t>
+  </si>
+  <si>
+    <t>ss2_qk</t>
+  </si>
+  <si>
+    <t>ss2_yh</t>
+  </si>
+  <si>
+    <t>ss2_doct</t>
+  </si>
+  <si>
+    <t>ss2_doct3</t>
+  </si>
+  <si>
+    <t>ss3_id</t>
+  </si>
+  <si>
+    <t>ss3_name</t>
+  </si>
+  <si>
+    <t>ss3_qk</t>
+  </si>
+  <si>
+    <t>ss3_yh</t>
+  </si>
+  <si>
+    <t>ss3_doct</t>
+  </si>
+  <si>
+    <t>ss3_doct3</t>
+  </si>
+  <si>
+    <t>yyxzcss</t>
+  </si>
+  <si>
+    <t>is_keep</t>
+  </si>
+  <si>
+    <t>tsss</t>
+  </si>
+  <si>
+    <t>sscs</t>
+  </si>
+  <si>
+    <t>tsssmc</t>
+  </si>
+  <si>
+    <t>yngr</t>
+  </si>
+  <si>
+    <t>xy_cydc_dm</t>
+  </si>
+  <si>
+    <t>ksdj</t>
+  </si>
+  <si>
+    <t>rela_flag</t>
+  </si>
+  <si>
+    <t>postal</t>
+  </si>
+  <si>
+    <t>bajybz</t>
+  </si>
+  <si>
+    <t>sbksdm</t>
+  </si>
+  <si>
+    <t>sbksmc</t>
+  </si>
+  <si>
+    <t>sbksdj</t>
+  </si>
+  <si>
+    <t>sbrela_flag</t>
+  </si>
+  <si>
+    <t>wjsscs</t>
+  </si>
+  <si>
+    <t>rysbksdm</t>
+  </si>
+  <si>
+    <t>ylqkjjcs</t>
+  </si>
+  <si>
+    <t>ylqkyjcs</t>
+  </si>
+  <si>
+    <t>ylqkbjcs</t>
+  </si>
+  <si>
+    <t>wt5bksdm</t>
+  </si>
+  <si>
+    <t>rywt5bksdm</t>
+  </si>
+  <si>
+    <t>bsh</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>bqmc</t>
+  </si>
+  <si>
+    <t>ss1_bz</t>
+  </si>
+  <si>
+    <t>ss2_bz</t>
+  </si>
+  <si>
+    <t>ss3_bz</t>
+  </si>
+  <si>
+    <t>old_bz</t>
+  </si>
+  <si>
+    <t>sszd_xyn</t>
+  </si>
+  <si>
+    <t>fylb</t>
+  </si>
+  <si>
+    <t>doct1_dm</t>
+  </si>
+  <si>
+    <t>doct2_dm</t>
+  </si>
+  <si>
+    <t>doct3_dm</t>
+  </si>
+  <si>
+    <t>doct4_dm</t>
+  </si>
+  <si>
+    <t>hospital_id</t>
+  </si>
+  <si>
+    <t>Empi</t>
+  </si>
+  <si>
+    <t>disease_name</t>
+  </si>
+  <si>
+    <t>disease_date</t>
+  </si>
+  <si>
+    <t>main_bz</t>
+  </si>
+  <si>
+    <t>disease_code</t>
+  </si>
+  <si>
+    <t>zlpf</t>
+  </si>
+  <si>
+    <t>bqdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大符文编号，及限制等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4，13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12，27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#24，51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加1所有技能；电防 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加2所有技能；吸引光环；变身冥河娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#31，65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +1234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +1247,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -617,10 +1275,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,12 +1291,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -939,920 +1609,2970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="7">
         <v>4</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>5</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="7">
         <v>6</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="7">
         <v>2</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="7">
         <v>3</v>
       </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="5">
+      <c r="D54" s="7">
         <v>5</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="7">
         <v>3</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="5">
+      <c r="D61" s="7">
         <v>4</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="5">
+      <c r="D65" s="7">
         <v>5</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>6</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>4</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="5">
+      <c r="D71" s="7">
         <v>5</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="7"/>
+      <c r="E72" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="5">
+      <c r="D74" s="7">
         <v>2</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>3</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="5">
+      <c r="D77" s="7">
         <v>4</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="7"/>
+      <c r="E78" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="7"/>
+      <c r="E79" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="7"/>
+      <c r="E80" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>3</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="5">
+      <c r="D83" s="7">
         <v>4</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="5">
+      <c r="D87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="7"/>
+      <c r="E88" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="7"/>
+      <c r="E89" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="5">
+      <c r="D92" s="7">
         <v>3</v>
       </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="5">
+      <c r="D94" s="7">
         <v>4</v>
       </c>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="5">
+      <c r="D100" s="7">
         <v>3</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F185" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D77:D80"/>
     <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D9:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C24"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D91:D98"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D24"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet2!B2" display="天底 Nadir"/>
+    <hyperlink ref="B4" location="Sheet2!B14" display="学识 Lore"/>
+    <hyperlink ref="B5" location="Sheet2!B28" display="光辉 Radiance"/>
+    <hyperlink ref="B6" location="Sheet2!B42" display="迪勒瑞姆 Delirium"/>
+    <hyperlink ref="B7" location="Sheet2!B62" display="梦境 Dream"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D203"/>
+  <sheetViews>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>295</v>
+      </c>
+      <c r="C154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B157" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>307</v>
+      </c>
+      <c r="C166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>313</v>
+      </c>
+      <c r="C172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>314</v>
+      </c>
+      <c r="C173" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>315</v>
+      </c>
+      <c r="C174" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" t="s">
+        <v>316</v>
+      </c>
+      <c r="C175" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>317</v>
+      </c>
+      <c r="C176" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>318</v>
+      </c>
+      <c r="C177" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>319</v>
+      </c>
+      <c r="C178" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+      <c r="C179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B180" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>322</v>
+      </c>
+      <c r="C181" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>323</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>324</v>
+      </c>
+      <c r="C184" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B185" t="s">
+        <v>345</v>
+      </c>
+      <c r="D185" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B186" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" t="s">
+        <v>327</v>
+      </c>
+      <c r="D186" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B187" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B189" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B190" t="s">
+        <v>331</v>
+      </c>
+      <c r="C190" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B192" t="s">
+        <v>333</v>
+      </c>
+      <c r="C192" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B193" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B194" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
+        <v>337</v>
+      </c>
+      <c r="C196" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>338</v>
+      </c>
+      <c r="C197" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B198" t="s">
+        <v>339</v>
+      </c>
+      <c r="C198" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B199" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>341</v>
+      </c>
+      <c r="C200" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>342</v>
+      </c>
+      <c r="C201" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B202" t="s">
+        <v>343</v>
+      </c>
+      <c r="C202" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>344</v>
+      </c>
+      <c r="C203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
